--- a/tarefas_diarias_limpeza.xlsx
+++ b/tarefas_diarias_limpeza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WKS-LJ03-CADASTRO2\Documents\GIT-DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1B557A-FC97-409C-9170-38EF18178B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1FC5-22ED-484C-A7E6-83B0624BFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42742099-A667-4469-984F-07BF58952133}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -311,15 +311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -337,21 +328,34 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -362,179 +366,151 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -570,55 +546,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDB850-F088-4A2E-AAF8-4CDA5C7E471E}">
-  <dimension ref="C3:K74"/>
+  <dimension ref="C3:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,8 +918,8 @@
     <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -955,10 +929,9 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="3:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -966,23 +939,21 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1007,9 +978,8 @@
       <c r="J7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1020,9 +990,8 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1033,9 +1002,8 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1046,9 +1014,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1059,9 +1026,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1072,9 +1038,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1083,48 +1048,47 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+    </row>
+    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4"/>
@@ -1136,7 +1100,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="4"/>
@@ -1148,7 +1112,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="4"/>
@@ -1160,7 +1124,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4"/>
@@ -1171,77 +1135,149 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="23"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="23"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="23" t="s">
         <v>20</v>
       </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C25" s="23" t="s">
         <v>22</v>
       </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="C26" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="C27" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="25" t="s">
         <v>23</v>
       </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="30" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="4"/>
@@ -1250,10 +1286,10 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="4"/>
@@ -1262,10 +1298,10 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="27"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="23" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="4"/>
@@ -1274,10 +1310,10 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="27"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D36" s="4"/>
@@ -1286,10 +1322,10 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="27"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="4"/>
@@ -1298,10 +1334,10 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="27"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="4"/>
@@ -1310,20 +1346,20 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="27"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="27"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="4"/>
@@ -1332,10 +1368,10 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="27"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="4"/>
@@ -1344,10 +1380,10 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="27"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="4"/>
@@ -1356,10 +1392,10 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="27"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D43" s="4"/>
@@ -1368,10 +1404,10 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="27"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="4"/>
@@ -1380,10 +1416,10 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="27"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="4"/>
@@ -1392,10 +1428,10 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="27"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="23" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="4"/>
@@ -1404,19 +1440,19 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="27"/>
+      <c r="J46" s="24"/>
     </row>
     <row r="47" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="51" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,36 +1465,36 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="21"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="24" t="s">
+      <c r="F53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H53" s="24" t="s">
+      <c r="H53" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="I53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="4"/>
@@ -1467,10 +1503,10 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="27"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="4"/>
@@ -1479,10 +1515,10 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="27"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="23" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="4"/>
@@ -1491,56 +1527,56 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="27"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="30"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
     </row>
     <row r="59" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J61" s="22" t="s">
+      <c r="J61" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1701,9 +1737,9 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C52:J52"/>
     <mergeCell ref="C60:J60"/>
-    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="C4:J5"/>
     <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/tarefas_diarias_limpeza.xlsx
+++ b/tarefas_diarias_limpeza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WKS-LJ03-CADASTRO2\Documents\GIT-DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1FC5-22ED-484C-A7E6-83B0624BFB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D383EE-3029-4319-854F-9A6A8CDBC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{42742099-A667-4469-984F-07BF58952133}"/>
   </bookViews>
@@ -907,10 +907,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDB850-F088-4A2E-AAF8-4CDA5C7E471E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C3:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,6 +1744,7 @@
     <mergeCell ref="C14:J14"/>
     <mergeCell ref="C6:J6"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>